--- a/轴模板/模板2 红蓝白.xlsx
+++ b/轴模板/模板2 红蓝白.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikus\Desktop\写轴器\bin\Debug\轴模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F9EF1E-F39F-475A-9CB9-679281F48550}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFDCB48-8446-452D-9A65-9F378A0F4117}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="轴" sheetId="4" r:id="rId1"/>
@@ -4232,7 +4232,23 @@
   </si>
   <si>
     <r>
-      <t>Rank</t>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>星级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/Rank</t>
     </r>
     <r>
       <rPr>
@@ -4254,7 +4270,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4344,6 +4360,20 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -4655,25 +4685,10 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4690,6 +4705,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5103,7 +5133,7 @@
     </row>
     <row r="4" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="34" t="s">
         <v>284</v>
       </c>
       <c r="C4" s="11"/>
@@ -5134,14 +5164,14 @@
     </row>
     <row r="5" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="3"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -5179,10 +5209,10 @@
       <c r="E6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="34"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -5210,8 +5240,8 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="4"/>
@@ -5239,8 +5269,8 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="4"/>
@@ -5268,8 +5298,8 @@
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="18"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="4"/>
@@ -5297,8 +5327,8 @@
       <c r="C10" s="7"/>
       <c r="D10" s="12"/>
       <c r="E10" s="18"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="4"/>
@@ -5326,8 +5356,8 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="4"/>
@@ -5355,8 +5385,8 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="4"/>
@@ -5384,8 +5414,8 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -5413,8 +5443,8 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -5442,8 +5472,8 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -5471,8 +5501,8 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -5500,8 +5530,8 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -5529,8 +5559,8 @@
       <c r="C18" s="7"/>
       <c r="D18" s="12"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -5558,8 +5588,8 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -5587,8 +5617,8 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="18"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -5616,8 +5646,8 @@
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -5645,8 +5675,8 @@
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="18"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -5674,8 +5704,8 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="18"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -5703,8 +5733,8 @@
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="18"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -5732,8 +5762,8 @@
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -5761,8 +5791,8 @@
       <c r="C26" s="7"/>
       <c r="D26" s="12"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -5790,8 +5820,8 @@
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="18"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -5819,8 +5849,8 @@
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="18"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="27"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -5848,8 +5878,8 @@
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="18"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="27"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -5877,8 +5907,8 @@
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="18"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="27"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -5906,8 +5936,8 @@
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="18"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="27"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="24"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -5935,8 +5965,8 @@
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="18"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="27"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="24"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -5964,8 +5994,8 @@
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="18"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="27"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="24"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -5993,8 +6023,8 @@
       <c r="C34" s="7"/>
       <c r="D34" s="12"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="27"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="24"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -6022,8 +6052,8 @@
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="18"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="27"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="24"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -6051,8 +6081,8 @@
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="18"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="27"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="24"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -6080,8 +6110,8 @@
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="18"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="27"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="24"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -6109,8 +6139,8 @@
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="18"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="27"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="24"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -6138,8 +6168,8 @@
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="18"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="27"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="24"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -6167,8 +6197,8 @@
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="18"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="27"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="24"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -6196,8 +6226,8 @@
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="18"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="27"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="24"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -6225,8 +6255,8 @@
       <c r="C42" s="7"/>
       <c r="D42" s="12"/>
       <c r="E42" s="18"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="27"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="24"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -6254,8 +6284,8 @@
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="18"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="27"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="24"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -6283,8 +6313,8 @@
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="18"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="27"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="24"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -6312,8 +6342,8 @@
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="18"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="27"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="24"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -6341,8 +6371,8 @@
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="18"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="27"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="24"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -6370,8 +6400,8 @@
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="18"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="27"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="24"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -6399,8 +6429,8 @@
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="18"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="24"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -6428,8 +6458,8 @@
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="18"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="27"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="24"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -6457,8 +6487,8 @@
       <c r="C50" s="7"/>
       <c r="D50" s="12"/>
       <c r="E50" s="18"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="27"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="24"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -6486,8 +6516,8 @@
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="18"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="27"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="24"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
@@ -6515,8 +6545,8 @@
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="18"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="27"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="24"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
@@ -6544,8 +6574,8 @@
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="18"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="27"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="24"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -6573,8 +6603,8 @@
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="18"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="27"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="24"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -6602,8 +6632,8 @@
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="18"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="27"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="24"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -6631,8 +6661,8 @@
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="18"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="27"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="24"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
@@ -6660,8 +6690,8 @@
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="18"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="27"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="24"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
@@ -6689,8 +6719,8 @@
       <c r="C58" s="7"/>
       <c r="D58" s="12"/>
       <c r="E58" s="18"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="27"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="24"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -6718,8 +6748,8 @@
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="18"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="27"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="24"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -6747,8 +6777,8 @@
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="18"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="27"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="24"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -6776,8 +6806,8 @@
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="18"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="27"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="24"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -6805,8 +6835,8 @@
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="18"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="27"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="24"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -6834,8 +6864,8 @@
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="18"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="27"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="24"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
@@ -6863,8 +6893,8 @@
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="18"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="27"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="24"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
@@ -6892,8 +6922,8 @@
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="18"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="27"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="24"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
@@ -6921,8 +6951,8 @@
       <c r="C66" s="7"/>
       <c r="D66" s="12"/>
       <c r="E66" s="18"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="27"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="24"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
@@ -6950,8 +6980,8 @@
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="18"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="27"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="24"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
@@ -6979,8 +7009,8 @@
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" s="18"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="27"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="24"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
@@ -7008,8 +7038,8 @@
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="18"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="27"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="24"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
@@ -7037,8 +7067,8 @@
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="18"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="27"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="24"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
@@ -7066,8 +7096,8 @@
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="18"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="27"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="24"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
@@ -7095,8 +7125,8 @@
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="18"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="27"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="24"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
@@ -7124,8 +7154,8 @@
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="18"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="27"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="24"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
@@ -7153,8 +7183,8 @@
       <c r="C74" s="7"/>
       <c r="D74" s="12"/>
       <c r="E74" s="18"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="27"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="24"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
@@ -7182,8 +7212,8 @@
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="18"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="27"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="24"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
@@ -7211,8 +7241,8 @@
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="18"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="27"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="24"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
@@ -7240,8 +7270,8 @@
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="18"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="27"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="24"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
@@ -7269,8 +7299,8 @@
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="18"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="27"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="24"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
@@ -7298,8 +7328,8 @@
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="18"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="27"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="24"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
@@ -7327,8 +7357,8 @@
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
       <c r="E80" s="18"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="27"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="24"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
@@ -7356,8 +7386,8 @@
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="18"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="27"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="24"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
@@ -7385,8 +7415,8 @@
       <c r="C82" s="7"/>
       <c r="D82" s="12"/>
       <c r="E82" s="18"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="27"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="24"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
@@ -7414,8 +7444,8 @@
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="18"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="27"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="24"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
@@ -7443,8 +7473,8 @@
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="18"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="27"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="24"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
@@ -7472,8 +7502,8 @@
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="18"/>
-      <c r="F85" s="26"/>
-      <c r="G85" s="27"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="24"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
@@ -7501,8 +7531,8 @@
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="18"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="27"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="24"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
@@ -7530,8 +7560,8 @@
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="18"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="27"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="24"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
@@ -7559,8 +7589,8 @@
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="18"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="27"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="24"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
@@ -7588,8 +7618,8 @@
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="18"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="27"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="24"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
@@ -7617,8 +7647,8 @@
       <c r="C90" s="7"/>
       <c r="D90" s="12"/>
       <c r="E90" s="18"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="27"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="24"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
@@ -7646,8 +7676,8 @@
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="18"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="27"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="24"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
@@ -7675,8 +7705,8 @@
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="18"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="27"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="24"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
@@ -7704,8 +7734,8 @@
       <c r="C93" s="7"/>
       <c r="D93" s="12"/>
       <c r="E93" s="18"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="27"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="24"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
@@ -7733,8 +7763,8 @@
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="18"/>
-      <c r="F94" s="26"/>
-      <c r="G94" s="27"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="24"/>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
@@ -7762,8 +7792,8 @@
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="18"/>
-      <c r="F95" s="26"/>
-      <c r="G95" s="27"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="24"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
@@ -7791,8 +7821,8 @@
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="18"/>
-      <c r="F96" s="26"/>
-      <c r="G96" s="27"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="24"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
@@ -7820,8 +7850,8 @@
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="E97" s="18"/>
-      <c r="F97" s="26"/>
-      <c r="G97" s="27"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="24"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
@@ -7849,8 +7879,8 @@
       <c r="C98" s="7"/>
       <c r="D98" s="12"/>
       <c r="E98" s="18"/>
-      <c r="F98" s="26"/>
-      <c r="G98" s="27"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="24"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
@@ -7878,8 +7908,8 @@
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
       <c r="E99" s="18"/>
-      <c r="F99" s="26"/>
-      <c r="G99" s="27"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="24"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
@@ -7907,8 +7937,8 @@
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
       <c r="E100" s="19"/>
-      <c r="F100" s="28"/>
-      <c r="G100" s="29"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="33"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
@@ -7933,13 +7963,13 @@
     <row r="101" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="18"/>
       <c r="B101" s="17"/>
-      <c r="C101" s="24" t="s">
+      <c r="C101" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D101" s="25"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="25"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="31"/>
+      <c r="G101" s="31"/>
       <c r="H101" s="4"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
@@ -13061,23 +13091,70 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="F47:G47"/>
     <mergeCell ref="F33:G33"/>
@@ -13094,70 +13171,23 @@
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
